--- a/Source_Data/Company_and_ESG_KW/Company_and_ESG_2018.xlsx
+++ b/Source_Data/Company_and_ESG_KW/Company_and_ESG_2018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="377">
   <si>
     <t>Published</t>
   </si>
@@ -335,6 +335,147 @@
     <t>warta.sumedang.info</t>
   </si>
   <si>
+    <t>2018-04-05T10:53:01+01:00</t>
+  </si>
+  <si>
+    <t>Gudang Garam</t>
+  </si>
+  <si>
+    <t>Siapa Bakal Kelola Bandara Kediri yang Dibangun Gudang Garam?</t>
+  </si>
+  <si>
+    <t>https://www.liputan6.com/bisnis/read/3428882/siapa-bakal-kelola-bandara-kediri-yang-dibangun-gudang-garam</t>
+  </si>
+  <si>
+    <t>liputan6.com</t>
+  </si>
+  <si>
+    <t>2018-04-05T23:45:53+01:00</t>
+  </si>
+  <si>
+    <t>https://m.liputan6.com/bisnis/read/3428882/siapa-bakal-kelola-bandara-kediri-yang-dibangun-gudang-garam</t>
+  </si>
+  <si>
+    <t>m.liputan6.com</t>
+  </si>
+  <si>
+    <t>2018-02-21T05:54:44Z</t>
+  </si>
+  <si>
+    <t>Adaro</t>
+  </si>
+  <si>
+    <t>PT. Adaro Diminta Perhatikan Pemulihan Lingkungan, CSR dan PLTU</t>
+  </si>
+  <si>
+    <t>http://www.dpr.go.id/berita/detail/id/19621</t>
+  </si>
+  <si>
+    <t>dpr.go.id</t>
+  </si>
+  <si>
+    <t>Setjen DPR RI</t>
+  </si>
+  <si>
+    <t>2018-04-12T03:08:55+01:00</t>
+  </si>
+  <si>
+    <t>Adaro Tambah Dana CSR untuk Dorong Pertumbuhan | Republika Online</t>
+  </si>
+  <si>
+    <t>http://republika.co.id/share/p71vag377</t>
+  </si>
+  <si>
+    <t>2018-07-20T05:45:42+01:00</t>
+  </si>
+  <si>
+    <t>Sampoerna</t>
+  </si>
+  <si>
+    <t>Sampoerna wins international award for clean water program</t>
+  </si>
+  <si>
+    <t>http://www.thejakartapost.com/adv/2018/07/20/sampoerna-wins-international-award-for-clean-water-program.html</t>
+  </si>
+  <si>
+    <t>thejakartapost.com</t>
+  </si>
+  <si>
+    <t>The Jakarta Post</t>
+  </si>
+  <si>
+    <t>2018-06-11T12:27:33+01:00</t>
+  </si>
+  <si>
+    <t>Dukung Pencapaian Tujuan Nawacita di Indonesia, Sampoerna Bangun Akses Air Bersih di Buleleng</t>
+  </si>
+  <si>
+    <t>http://pressrelease.id/release/dukung-pencapaian-tujuan-nawacita-di-indonesia-sampoerna-bangun-akses-air-bersih-di-buleleng</t>
+  </si>
+  <si>
+    <t>pressrelease.id</t>
+  </si>
+  <si>
+    <t>2018-05-13T17:51:45+01:00</t>
+  </si>
+  <si>
+    <t>Sampoerna Raih 3 Penghargaan di Ajang CSR Global Award 2018 - Kompas.com</t>
+  </si>
+  <si>
+    <t>https://biz.kompas.com/read/2018/05/13/234632928/sampoerna-raih-3-penghargaan-di-ajang-csr-global-award-2018</t>
+  </si>
+  <si>
+    <t>biz.kompas.com</t>
+  </si>
+  <si>
+    <t>2018-04-15T21:15:51+01:00</t>
+  </si>
+  <si>
+    <t>Sampoerna Agro Tanggulangi Kemiskinan di Sumsel</t>
+  </si>
+  <si>
+    <t>http://mediaindonesia.com/read/detail/155286-sampoerna-agro-tanggulangi-kemiskinan-di-sumsel</t>
+  </si>
+  <si>
+    <t>mediaindonesia.com</t>
+  </si>
+  <si>
+    <t>2018-04-20T11:37:46+01:00</t>
+  </si>
+  <si>
+    <t>Indosat</t>
+  </si>
+  <si>
+    <t>Digital Day Wujud Kepedulian Indosat di Bidang Edukasi dan Inovasi  - Selular.ID</t>
+  </si>
+  <si>
+    <t>https://selular.id/2018/04/digital-day-wujud-kepedulian-indosat-di-bidang-edukasi-dan-inovasi/</t>
+  </si>
+  <si>
+    <t>2018-12-28T09:58:47Z</t>
+  </si>
+  <si>
+    <t>PBNU and Indosat Cooperation in the Field of Education | Arrahmah.co.id</t>
+  </si>
+  <si>
+    <t>https://www.arrahmah.co.id/2018/12/24864/pbnu-and-indosat-cooperation-in-the-field-of-education.html</t>
+  </si>
+  <si>
+    <t>arrahmah.co.id</t>
+  </si>
+  <si>
+    <t>Redaksi Arrahmah.co.id</t>
+  </si>
+  <si>
+    <t>2018-10-05T11:45:06+01:00</t>
+  </si>
+  <si>
+    <t>Lintasarta Sabet 2 Kategori Penghargaan CSR 2018 – Sumedang Media</t>
+  </si>
+  <si>
+    <t>https://warta.sumedang.info/tekno/121266-lintasarta-sabet-2-kategori-penghargaan-csr-2018/</t>
+  </si>
+  <si>
     <t>2018-05-15T06:35:15+01:00</t>
   </si>
   <si>
@@ -692,9 +833,6 @@
     <t>http://mediaindonesia.com/read/detail/162327-rupiah-semakin-lemah-astra-lakukan-penyesuaian-outlook</t>
   </si>
   <si>
-    <t>mediaindonesia.com</t>
-  </si>
-  <si>
     <t>2018-12-10T02:44:10Z</t>
   </si>
   <si>
@@ -758,9 +896,6 @@
     <t>http://www.pressrelease.id/release/semangat-astra-semangat-indonesia-gelorakan-asian-games-2018</t>
   </si>
   <si>
-    <t>pressrelease.id</t>
-  </si>
-  <si>
     <t>2018-04-24T10:20:56+01:00</t>
   </si>
   <si>
@@ -959,9 +1094,6 @@
     <t>https://www.liputan6.com/otomotif/read/3534178/penjualan-mobil-tahun-ini-diprediksi-anjlok-ini-penyebabnya</t>
   </si>
   <si>
-    <t>liputan6.com</t>
-  </si>
-  <si>
     <t>2018-03-22T11:06:02Z</t>
   </si>
   <si>
@@ -1001,12 +1133,6 @@
     <t>http://www.thejakartapost.com/news/2018/08/07/astra-developing-non-auto-businesses.html</t>
   </si>
   <si>
-    <t>thejakartapost.com</t>
-  </si>
-  <si>
-    <t>The Jakarta Post</t>
-  </si>
-  <si>
     <t>2018-12-22T04:03:28Z</t>
   </si>
   <si>
@@ -1017,120 +1143,6 @@
   </si>
   <si>
     <t>portalcirebon.com</t>
-  </si>
-  <si>
-    <t>2018-03-09T20:02:58Z</t>
-  </si>
-  <si>
-    <t>BNI</t>
-  </si>
-  <si>
-    <t>BBNI Gelontorkan KUR untuk 2.381 Petani Hutan – Sumedang Media</t>
-  </si>
-  <si>
-    <t>https://warta.sumedang.info/ekonomi-bisnis/70560-bbni-gelontorkan-kur-untuk-2-381-petani-hutan/</t>
-  </si>
-  <si>
-    <t>Bank Mandiri</t>
-  </si>
-  <si>
-    <t>2018-02-12T08:00:02Z</t>
-  </si>
-  <si>
-    <t>Peletakan Batu Pertama PLK UNAIR Tandai Peningkatan Pelayanan | Unair News</t>
-  </si>
-  <si>
-    <t>http://news.unair.ac.id/2018/02/12/peletakan-batu-pertama-plk-unair-tandai-peningkatan-pelayanan/</t>
-  </si>
-  <si>
-    <t>news.unair.ac.id</t>
-  </si>
-  <si>
-    <t>UNAIR News</t>
-  </si>
-  <si>
-    <t>2018-11-29T18:15:12Z</t>
-  </si>
-  <si>
-    <t>Mandiri Kembangkan UKM di Kampus Unnes</t>
-  </si>
-  <si>
-    <t>http://mediaindonesia.com/read/detail/201074-mandiri-kembangkan-ukm-di-kampus-unnes</t>
-  </si>
-  <si>
-    <t>2018-11-29T06:54:44Z</t>
-  </si>
-  <si>
-    <t>UKM Kriya Tulang Daun Unnes Kian Berkembang</t>
-  </si>
-  <si>
-    <t>http://mediaindonesia.com/read/detail/200966-ukm-kriya-tulang-daun-unnes-kian-berkembang</t>
-  </si>
-  <si>
-    <t>Penulis</t>
-  </si>
-  <si>
-    <t>2018-12-12T09:21:04Z</t>
-  </si>
-  <si>
-    <t>Universitas Gadjah Mada: Bank Syariah Mandiri Serahkan Bantuan CSR ke UGM</t>
-  </si>
-  <si>
-    <t>http://ugm.ac.id/id/berita/17485-bank.syariah.mandiri.serahkan.bantuan.csr.ke.ugm</t>
-  </si>
-  <si>
-    <t>ugm.ac.id</t>
-  </si>
-  <si>
-    <t>Oleh</t>
-  </si>
-  <si>
-    <t>2018-05-01T14:47:00+01:00</t>
-  </si>
-  <si>
-    <t>Bantu Komputer, Server, dan Sarana Ibadah</t>
-  </si>
-  <si>
-    <t>https://www.jawapos.com/radarbanyuwangi/read/2018/05/01/69649/bantu-komputer-server-dan-sarana-ibadah</t>
-  </si>
-  <si>
-    <t>2018-01-28T05:34:45Z</t>
-  </si>
-  <si>
-    <t>BSM Serahkan Bantuan Sanitasi Lingkungan | indopos.co.id</t>
-  </si>
-  <si>
-    <t>http://indopos.co.id/read/2016/12/04/76805/bsm-serahkan-bantuan-sanitasi-lingkungan</t>
-  </si>
-  <si>
-    <t>2018-11-29T11:36:34Z</t>
-  </si>
-  <si>
-    <t>CSR Mandiri Syariah untuk Museum Keraton Kesepuhan Cirebon - Bisnis.com</t>
-  </si>
-  <si>
-    <t>http://foto.bisnis.com/view/20181129/864697/csr-mandiri-syariah-untuk-museum-keraton-kesepuhan-cirebon</t>
-  </si>
-  <si>
-    <t>2018-04-20T02:03:15+01:00</t>
-  </si>
-  <si>
-    <t>Bank Mandiri Serahkan Bantuan Program CSR</t>
-  </si>
-  <si>
-    <t>http://www.medanbisnisdaily.com/news/read/2018/04/20/344634/bank-mandiri-serahkan-bantuan-program-csr/</t>
-  </si>
-  <si>
-    <t>2018-10-22T09:11:58+01:00</t>
-  </si>
-  <si>
-    <t>Bank Mandiri Cabang Biak Dukung Program JKN-KIS Melalui Donasi CSR</t>
-  </si>
-  <si>
-    <t>https://www.lensapapua.com/kesehatan/bank-mandiri-cabang-biak-dukung-program-jkn-kis-melalui-donasi-csr/</t>
-  </si>
-  <si>
-    <t>lensapapua.com</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2339,7 +2351,7 @@
         <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -2354,10 +2366,10 @@
         <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L27" t="n">
         <v>2.0</v>
@@ -2366,18 +2378,18 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>113</v>
@@ -2418,19 +2430,19 @@
         <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -2439,10 +2451,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -2454,24 +2466,24 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -2483,42 +2495,42 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -2527,7 +2539,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
@@ -2542,24 +2554,24 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -2571,7 +2583,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -2586,24 +2598,24 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -2635,19 +2647,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -2679,19 +2691,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -2706,39 +2718,39 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -2747,7 +2759,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -2762,24 +2774,24 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -2794,36 +2806,36 @@
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M37" t="n">
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -2835,16 +2847,16 @@
         <v>0.0</v>
       </c>
       <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n">
         <v>2.0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K38" t="n">
         <v>0.0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M38" t="n">
         <v>0.0</v>
@@ -2855,19 +2867,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -2879,7 +2891,7 @@
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" t="n">
         <v>0.0</v>
@@ -2894,24 +2906,24 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -2926,7 +2938,7 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -2938,27 +2950,27 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
@@ -2967,7 +2979,7 @@
         <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
@@ -2982,24 +2994,24 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -3011,7 +3023,7 @@
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" t="n">
         <v>0.0</v>
@@ -3026,27 +3038,27 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -3055,7 +3067,7 @@
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -3070,24 +3082,24 @@
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3119,19 +3131,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -3163,19 +3175,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -3207,19 +3219,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -3251,19 +3263,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3278,36 +3290,36 @@
         <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M48" t="n">
         <v>0.0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3319,7 +3331,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -3334,24 +3346,24 @@
         <v>0.0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -3363,7 +3375,7 @@
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J50" t="n">
         <v>0.0</v>
@@ -3378,24 +3390,24 @@
         <v>0.0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -3410,7 +3422,7 @@
         <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -3422,27 +3434,27 @@
         <v>0.0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -3451,7 +3463,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J52" t="n">
         <v>0.0</v>
@@ -3466,25 +3478,25 @@
         <v>0.0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" t="s">
         <v>196</v>
       </c>
-      <c r="D53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" t="s">
-        <v>87</v>
-      </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
@@ -3495,7 +3507,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J53" t="n">
         <v>0.0</v>
@@ -3510,27 +3522,27 @@
         <v>0.0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
@@ -3539,7 +3551,7 @@
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J54" t="n">
         <v>0.0</v>
@@ -3554,24 +3566,24 @@
         <v>0.0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -3603,19 +3615,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -3647,19 +3659,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -3691,19 +3703,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -3735,19 +3747,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -3779,19 +3791,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -3823,19 +3835,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -3850,36 +3862,36 @@
         <v>0.0</v>
       </c>
       <c r="J61" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="K61" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="L61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M61" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="N61" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -3894,39 +3906,39 @@
         <v>0.0</v>
       </c>
       <c r="J62" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="K62" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="L62" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M62" t="n">
         <v>0.0</v>
       </c>
       <c r="N62" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
@@ -3935,39 +3947,39 @@
         <v>0.0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K63" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="L63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M63" t="n">
         <v>0.0</v>
       </c>
       <c r="N63" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -3982,39 +3994,39 @@
         <v>0.0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K64" t="n">
         <v>0.0</v>
       </c>
       <c r="L64" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M64" t="n">
         <v>0.0</v>
       </c>
       <c r="N64" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="F65" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -4023,7 +4035,7 @@
         <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J65" t="n">
         <v>0.0</v>
@@ -4038,24 +4050,24 @@
         <v>0.0</v>
       </c>
       <c r="N65" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -4067,7 +4079,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J66" t="n">
         <v>0.0</v>
@@ -4082,24 +4094,24 @@
         <v>0.0</v>
       </c>
       <c r="N66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -4111,7 +4123,7 @@
         <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J67" t="n">
         <v>0.0</v>
@@ -4126,24 +4138,24 @@
         <v>0.0</v>
       </c>
       <c r="N67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -4155,7 +4167,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J68" t="n">
         <v>0.0</v>
@@ -4170,24 +4182,24 @@
         <v>0.0</v>
       </c>
       <c r="N68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -4199,7 +4211,7 @@
         <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J69" t="n">
         <v>0.0</v>
@@ -4214,24 +4226,24 @@
         <v>0.0</v>
       </c>
       <c r="N69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -4263,19 +4275,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4307,19 +4319,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -4334,36 +4346,36 @@
         <v>0.0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -4378,39 +4390,39 @@
         <v>0.0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M73" t="n">
         <v>0.0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="G74" t="n">
         <v>0.0</v>
@@ -4419,39 +4431,39 @@
         <v>0.0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M74" t="n">
         <v>0.0</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" t="s">
         <v>267</v>
       </c>
-      <c r="B75" t="s">
-        <v>220</v>
-      </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -4466,39 +4478,39 @@
         <v>0.0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K75" t="n">
         <v>0.0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M75" t="n">
         <v>0.0</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="G76" t="n">
         <v>0.0</v>
@@ -4507,7 +4519,7 @@
         <v>0.0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J76" t="n">
         <v>0.0</v>
@@ -4522,24 +4534,24 @@
         <v>0.0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -4551,7 +4563,7 @@
         <v>0.0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J77" t="n">
         <v>0.0</v>
@@ -4566,24 +4578,24 @@
         <v>0.0</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E78" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -4595,7 +4607,7 @@
         <v>0.0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J78" t="n">
         <v>0.0</v>
@@ -4610,24 +4622,24 @@
         <v>0.0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -4639,7 +4651,7 @@
         <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J79" t="n">
         <v>0.0</v>
@@ -4654,24 +4666,24 @@
         <v>0.0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E80" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -4683,7 +4695,7 @@
         <v>0.0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J80" t="n">
         <v>0.0</v>
@@ -4698,24 +4710,24 @@
         <v>0.0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -4747,19 +4759,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C82" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -4791,19 +4803,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C83" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -4835,19 +4847,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -4879,19 +4891,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -4923,19 +4935,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -4967,19 +4979,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -5011,19 +5023,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5055,19 +5067,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D89" t="s">
+        <v>323</v>
+      </c>
+      <c r="E89" t="s">
         <v>311</v>
-      </c>
-      <c r="E89" t="s">
-        <v>262</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -5099,19 +5111,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -5143,19 +5155,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D91" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E91" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -5187,19 +5199,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="E92" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -5231,19 +5243,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="D93" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -5275,19 +5287,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D94" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E94" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -5319,22 +5331,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="D95" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E95" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="F95" t="s">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
         <v>0.0</v>
@@ -5363,19 +5375,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D96" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E96" t="s">
-        <v>334</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -5407,16 +5419,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B97" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D97" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E97" t="s">
         <v>106</v>
@@ -5434,7 +5446,7 @@
         <v>0.0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K97" t="n">
         <v>0.0</v>
@@ -5446,27 +5458,27 @@
         <v>0.0</v>
       </c>
       <c r="N97" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>347</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G98" t="n">
         <v>0.0</v>
@@ -5475,42 +5487,42 @@
         <v>0.0</v>
       </c>
       <c r="I98" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="J98" t="n">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
       <c r="K98" t="n">
-        <v>79.0</v>
+        <v>0.0</v>
       </c>
       <c r="L98" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M98" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N98" t="n">
-        <v>91.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D99" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F99" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="G99" t="n">
         <v>0.0</v>
@@ -5519,10 +5531,10 @@
         <v>0.0</v>
       </c>
       <c r="I99" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J99" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="K99" t="n">
         <v>0.0</v>
@@ -5534,24 +5546,24 @@
         <v>0.0</v>
       </c>
       <c r="N99" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C100" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D100" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -5563,7 +5575,7 @@
         <v>0.0</v>
       </c>
       <c r="I100" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J100" t="n">
         <v>0.0</v>
@@ -5578,27 +5590,27 @@
         <v>0.0</v>
       </c>
       <c r="N100" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D101" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="F101" t="s">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="G101" t="n">
         <v>0.0</v>
@@ -5607,7 +5619,7 @@
         <v>0.0</v>
       </c>
       <c r="I101" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J101" t="n">
         <v>0.0</v>
@@ -5622,27 +5634,27 @@
         <v>0.0</v>
       </c>
       <c r="N101" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D102" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E102" t="s">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="F102" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="G102" t="n">
         <v>0.0</v>
@@ -5651,7 +5663,7 @@
         <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
         <v>0.0</v>
@@ -5666,27 +5678,27 @@
         <v>0.0</v>
       </c>
       <c r="N102" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B103" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C103" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="D103" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
         <v>0.0</v>
@@ -5695,7 +5707,7 @@
         <v>0.0</v>
       </c>
       <c r="I103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J103" t="n">
         <v>0.0</v>
@@ -5710,24 +5722,24 @@
         <v>0.0</v>
       </c>
       <c r="N103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B104" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="D104" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E104" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -5759,19 +5771,19 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
       <c r="B105" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>368</v>
       </c>
       <c r="D105" t="s">
-        <v>64</v>
+        <v>369</v>
       </c>
       <c r="E105" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -5803,22 +5815,22 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E106" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="G106" t="n">
         <v>0.0</v>
@@ -5847,19 +5859,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D107" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E107" t="s">
-        <v>87</v>
+        <v>376</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -5886,50 +5898,6 @@
         <v>0.0</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>369</v>
-      </c>
-      <c r="B108" t="s">
-        <v>339</v>
-      </c>
-      <c r="C108" t="s">
-        <v>370</v>
-      </c>
-      <c r="D108" t="s">
-        <v>371</v>
-      </c>
-      <c r="E108" t="s">
-        <v>372</v>
-      </c>
-      <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N108" t="n">
         <v>0.0</v>
       </c>
     </row>
